--- a/PS-1/Project3.xlsx
+++ b/PS-1/Project3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15840" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15300" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0NF" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
   <si>
     <t>Assumptions</t>
   </si>
@@ -30,119 +30,122 @@
     <t>FDs</t>
   </si>
   <si>
-    <t>Salesperson ID</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Commission</t>
-  </si>
-  <si>
-    <t>VIN</t>
-  </si>
-  <si>
-    <t>Make</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Date Sold</t>
-  </si>
-  <si>
-    <t>Price Sold</t>
-  </si>
-  <si>
-    <t>Samuels</t>
-  </si>
-  <si>
-    <t>1ZVHE86H345112344</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Mustang</t>
-  </si>
-  <si>
-    <t>Malibu</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>3RVHF86H193457397</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Mendes</t>
-  </si>
-  <si>
-    <t>2VVER7A9L923012498</t>
-  </si>
-  <si>
-    <t>Kia</t>
-  </si>
-  <si>
-    <t>Spectra</t>
-  </si>
-  <si>
-    <t>Accord</t>
-  </si>
-  <si>
-    <t>Honda</t>
-  </si>
-  <si>
-    <t>6GRO166M5622334919</t>
-  </si>
-  <si>
-    <t>Car No</t>
-  </si>
-  <si>
-    <t>Sale No</t>
-  </si>
-  <si>
-    <t>Salesperson</t>
-  </si>
-  <si>
-    <t>We invented a Sale Number key to uniquely identify each car sold by a salesperson. A VIN number uniquely identifes a vehicle but for security reasons this will not be used as the PK. Each sale number is unique for each saleperson.</t>
-  </si>
-  <si>
-    <t>The combination of the Saleperson ID and Sale Number uniquely identifies each row.</t>
-  </si>
-  <si>
-    <t>Salesperson ID -&gt; First Name, Last Name, Commission</t>
-  </si>
-  <si>
-    <t>RRP Price</t>
-  </si>
-  <si>
-    <t>We invented a Car Number key to avoid having to type the full make, model, year, and RRP price for each vehicle that is sold by a salesperson.</t>
-  </si>
-  <si>
-    <t>Case Number -&gt; Make, Model, Year, RRP Price</t>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>Bedrooms</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>Realtor Guide</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ILS #</t>
+  </si>
+  <si>
+    <t>Baths</t>
+  </si>
+  <si>
+    <t>Sq. Ft</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Condominiums</t>
+  </si>
+  <si>
+    <t>New London, NH</t>
+  </si>
+  <si>
+    <t>Janet Bines</t>
+  </si>
+  <si>
+    <t>12 Clinton Ct.</t>
+  </si>
+  <si>
+    <t>22 Dewer Ave.</t>
+  </si>
+  <si>
+    <t>15 Hartford St</t>
+  </si>
+  <si>
+    <t>Property Style</t>
+  </si>
+  <si>
+    <t>Townhouse</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Well-maintained 3-level Townhouse!!! 3rd floor loft area, great for a playroom, guest room or office. Two desk overlooking yard. Full basement.</t>
+  </si>
+  <si>
+    <t>Private country setting, end unit, first floor bedroom and full bath on level one. Tiled kitchen and bath.</t>
+  </si>
+  <si>
+    <t>Well kept condo in great location! This end unit features a large decl in back leading to a private and wooded back yard. Renovated kitchen. All appliances stay.</t>
+  </si>
+  <si>
+    <t>Property ID</t>
+  </si>
+  <si>
+    <t>Schdule ID</t>
+  </si>
+  <si>
+    <t>Property ID -&gt; Property Type, Property Style, Address, Town, Bedrooms, Baths, Sq. Ft</t>
+  </si>
+  <si>
+    <t>MLS # is not a unique number, it is assigned to the property by the MLS system the Realtor is part of, different realtors could have different MLS # for the same property.</t>
+  </si>
+  <si>
+    <t>We invented a Property Number to avoid having to type the full property type, style, address, town, bedrooms, baths, sq. ft.</t>
+  </si>
+  <si>
+    <t>Different Realtors could have different prices for the same property due to differences in commision fee etc.</t>
+  </si>
+  <si>
+    <t>The combination of Property ID and Schdule ID uniquely identifies each row.</t>
+  </si>
+  <si>
+    <t>Visit</t>
+  </si>
+  <si>
+    <t>Schdule</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Schdule ID -&gt; Date, Realtor Guide</t>
+  </si>
+  <si>
+    <t>There can be multiple comments per property.</t>
+  </si>
+  <si>
+    <t>Comment ID</t>
+  </si>
+  <si>
+    <t>Property ID, Comment ID -&gt; Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,8 +189,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +211,14 @@
         <bgColor rgb="FFEBF1DE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -229,8 +246,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="145">
+  <cellStyleXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -376,33 +413,108 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="17" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="145">
+  <cellStyles count="213">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -475,6 +587,40 @@
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -547,9 +693,43 @@
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
@@ -566,6 +746,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -583,6 +764,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -595,6 +777,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -607,6 +790,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -619,6 +803,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -636,7 +821,24 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -728,20 +930,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K5" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:K5"/>
-  <tableColumns count="11">
-    <tableColumn id="1" name="Salesperson ID" dataDxfId="10"/>
-    <tableColumn id="2" name="First Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Last Name" dataDxfId="8"/>
-    <tableColumn id="4" name="Commission" dataDxfId="7"/>
-    <tableColumn id="5" name="VIN" dataDxfId="6"/>
-    <tableColumn id="6" name="Make" dataDxfId="5"/>
-    <tableColumn id="7" name="Model" dataDxfId="4"/>
-    <tableColumn id="8" name="Year" dataDxfId="3"/>
-    <tableColumn id="9" name="Price" dataDxfId="2"/>
-    <tableColumn id="10" name="Date Sold" dataDxfId="1"/>
-    <tableColumn id="11" name="Price Sold" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L4"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Property Type" dataDxfId="11"/>
+    <tableColumn id="2" name="Bedrooms" dataDxfId="10"/>
+    <tableColumn id="3" name="Town" dataDxfId="9"/>
+    <tableColumn id="4" name="Realtor Guide" dataDxfId="8"/>
+    <tableColumn id="5" name="Date" dataDxfId="7"/>
+    <tableColumn id="6" name="ILS #" dataDxfId="5"/>
+    <tableColumn id="7" name="Baths" dataDxfId="4"/>
+    <tableColumn id="8" name="Sq. Ft" dataDxfId="3"/>
+    <tableColumn id="9" name="Address" dataDxfId="2"/>
+    <tableColumn id="12" name="Property Style" dataDxfId="1"/>
+    <tableColumn id="10" name="Price" dataDxfId="0"/>
+    <tableColumn id="11" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1069,33 +1272,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="11" max="11" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>5</v>
@@ -1119,150 +1323,127 @@
         <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
-        <v>2134</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="2">
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="5">
+        <v>41158</v>
+      </c>
+      <c r="F2" s="21">
+        <v>4003199</v>
+      </c>
+      <c r="G2" s="21">
+        <v>2</v>
+      </c>
+      <c r="H2" s="21">
+        <v>1120</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2">
-        <v>2009</v>
-      </c>
-      <c r="I2" s="5">
-        <v>32000</v>
-      </c>
-      <c r="J2" s="6">
-        <v>41133</v>
-      </c>
-      <c r="K2" s="5">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>2134</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="J2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="21">
+        <v>84999</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>41158</v>
+      </c>
+      <c r="F3" s="21">
+        <v>4010462</v>
+      </c>
+      <c r="G3" s="21">
+        <v>2</v>
+      </c>
+      <c r="H3" s="21">
+        <v>1323</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="K3" s="21">
+        <v>130000</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>41158</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4010089</v>
+      </c>
+      <c r="G4" s="21">
+        <v>3</v>
+      </c>
+      <c r="H4" s="21">
+        <v>1780</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2">
-        <v>2008</v>
-      </c>
-      <c r="I3" s="5">
-        <v>14000</v>
-      </c>
-      <c r="J3" s="6">
-        <v>41143</v>
-      </c>
-      <c r="K3" s="5">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>2165</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="J4" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="K4" s="21">
+        <v>124900</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2009</v>
-      </c>
-      <c r="I4" s="5">
-        <v>10000</v>
-      </c>
-      <c r="J4" s="6">
-        <v>41139</v>
-      </c>
-      <c r="K4" s="5">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>2165</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2005</v>
-      </c>
-      <c r="I5" s="5">
-        <v>16000</v>
-      </c>
-      <c r="J5" s="6">
-        <v>41150</v>
-      </c>
-      <c r="K5" s="5">
-        <v>14500</v>
       </c>
     </row>
   </sheetData>
@@ -1281,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M15"/>
+  <dimension ref="A2:O18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1301,244 +1482,242 @@
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7">
+        <v>2</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1120</v>
+      </c>
+      <c r="J3" s="22">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="13">
+        <v>41158</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="22">
+        <v>4003199</v>
+      </c>
+      <c r="O3" s="22">
+        <v>84999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="23">
+        <v>1323</v>
+      </c>
+      <c r="J4" s="23">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="16">
+        <v>41158</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="23">
+        <v>4010462</v>
+      </c>
+      <c r="O4" s="23">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19">
+        <v>7</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2</v>
+      </c>
+      <c r="H5" s="25">
+        <v>3</v>
+      </c>
+      <c r="I5" s="24">
+        <v>1780</v>
+      </c>
+      <c r="J5" s="24">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="K5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="20">
+        <v>41158</v>
+      </c>
+      <c r="M5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="8">
-        <v>2009</v>
-      </c>
-      <c r="K3" s="11">
-        <v>32000</v>
-      </c>
-      <c r="L3" s="12">
-        <v>41133</v>
-      </c>
-      <c r="M3" s="11">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="13">
-        <v>2134</v>
-      </c>
-      <c r="B4" s="13">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="13">
-        <v>2008</v>
-      </c>
-      <c r="K4" s="16">
-        <v>14000</v>
-      </c>
-      <c r="L4" s="17">
-        <v>41143</v>
-      </c>
-      <c r="M4" s="16">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="8">
-        <v>2165</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.03</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="8">
-        <v>2009</v>
-      </c>
-      <c r="K5" s="11">
-        <v>10000</v>
-      </c>
-      <c r="L5" s="12">
-        <v>41139</v>
-      </c>
-      <c r="M5" s="11">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B6" s="18">
-        <v>2</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.03</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="18">
-        <v>4</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="18">
-        <v>2005</v>
-      </c>
-      <c r="K6" s="21">
-        <v>16000</v>
-      </c>
-      <c r="L6" s="22">
-        <v>41150</v>
-      </c>
-      <c r="M6" s="21">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N5" s="24">
+        <v>4010089</v>
+      </c>
+      <c r="O5" s="24">
+        <v>124900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>37</v>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1554,10 +1733,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1568,291 +1747,220 @@
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="10">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="8">
+        <v>2</v>
+      </c>
+      <c r="H3" s="23">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+      <c r="G4" s="25">
+        <v>3</v>
+      </c>
+      <c r="H4" s="24">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="12">
+        <v>7</v>
+      </c>
+      <c r="B7" s="13">
+        <v>41158</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16">
+        <v>41158</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="19">
+        <v>9</v>
+      </c>
+      <c r="B9" s="20">
+        <v>41158</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>7</v>
+      </c>
+      <c r="C12" s="22">
+        <v>4003199</v>
+      </c>
+      <c r="D12" s="22">
+        <v>84999</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E8" s="11">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2008</v>
-      </c>
-      <c r="E9" s="16">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="15">
+        <v>7</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4010462</v>
+      </c>
+      <c r="D13" s="23">
+        <v>130000</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B14" s="19">
+        <v>7</v>
+      </c>
+      <c r="C14" s="24">
+        <v>4010089</v>
+      </c>
+      <c r="D14" s="24">
+        <v>124900</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2005</v>
-      </c>
-      <c r="E11" s="21">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="8">
-        <v>2009</v>
-      </c>
-      <c r="G14" s="11">
-        <v>32000</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="12">
-        <v>41133</v>
-      </c>
-      <c r="J14" s="11">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2008</v>
-      </c>
-      <c r="G15" s="16">
-        <v>14000</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="17">
-        <v>41143</v>
-      </c>
-      <c r="J15" s="16">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="8">
-        <v>2009</v>
-      </c>
-      <c r="G16" s="11">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="12">
-        <v>41139</v>
-      </c>
-      <c r="J16" s="11">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="18">
-        <v>2005</v>
-      </c>
-      <c r="G17" s="21">
-        <v>16000</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="22">
-        <v>41150</v>
-      </c>
-      <c r="J17" s="21">
-        <v>14500</v>
       </c>
     </row>
   </sheetData>
@@ -1868,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1881,231 +1989,262 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="10">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>2</v>
+      </c>
+      <c r="H4" s="23">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="17">
+        <v>2</v>
+      </c>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+      <c r="H5" s="24">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="18" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="12">
+        <v>7</v>
+      </c>
+      <c r="B9" s="13">
+        <v>41158</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="26"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="E18" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E8" s="11">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13">
-        <v>2008</v>
-      </c>
-      <c r="E9" s="16">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="B19" s="12">
+        <v>7</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="22">
+        <v>4003199</v>
+      </c>
+      <c r="E19" s="22">
+        <v>84999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="15">
+        <v>7</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="23">
+        <v>4010462</v>
+      </c>
+      <c r="E20" s="23">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>3</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8">
-        <v>2009</v>
-      </c>
-      <c r="E10" s="11">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="18">
-        <v>2005</v>
-      </c>
-      <c r="E11" s="21">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="B21" s="19">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="C21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="12">
-        <v>41133</v>
-      </c>
-      <c r="F14" s="11">
-        <v>28500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8">
-        <v>2134</v>
-      </c>
-      <c r="B15" s="13">
-        <v>2</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17">
-        <v>41143</v>
-      </c>
-      <c r="F15" s="16">
-        <v>12800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B16" s="8">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="12">
-        <v>41139</v>
-      </c>
-      <c r="F16" s="11">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="18">
-        <v>2165</v>
-      </c>
-      <c r="B17" s="18">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="22">
-        <v>41150</v>
-      </c>
-      <c r="F17" s="21">
-        <v>14500</v>
+      <c r="D21" s="24">
+        <v>4010089</v>
+      </c>
+      <c r="E21" s="24">
+        <v>124900</v>
       </c>
     </row>
   </sheetData>

--- a/PS-1/Project3.xlsx
+++ b/PS-1/Project3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15300" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1760" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="0NF" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="2NF" sheetId="3" r:id="rId3"/>
     <sheet name="3NF" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="48">
   <si>
     <t>Assumptions</t>
   </si>
@@ -99,53 +99,83 @@
     <t>Well kept condo in great location! This end unit features a large decl in back leading to a private and wooded back yard. Renovated kitchen. All appliances stay.</t>
   </si>
   <si>
-    <t>Property ID</t>
-  </si>
-  <si>
-    <t>Schdule ID</t>
-  </si>
-  <si>
-    <t>Property ID -&gt; Property Type, Property Style, Address, Town, Bedrooms, Baths, Sq. Ft</t>
-  </si>
-  <si>
     <t>MLS # is not a unique number, it is assigned to the property by the MLS system the Realtor is part of, different realtors could have different MLS # for the same property.</t>
   </si>
   <si>
-    <t>We invented a Property Number to avoid having to type the full property type, style, address, town, bedrooms, baths, sq. ft.</t>
-  </si>
-  <si>
-    <t>Different Realtors could have different prices for the same property due to differences in commision fee etc.</t>
-  </si>
-  <si>
-    <t>The combination of Property ID and Schdule ID uniquely identifies each row.</t>
-  </si>
-  <si>
-    <t>Visit</t>
-  </si>
-  <si>
-    <t>Schdule</t>
-  </si>
-  <si>
-    <t>Property</t>
-  </si>
-  <si>
-    <t>Schdule ID -&gt; Date, Realtor Guide</t>
-  </si>
-  <si>
-    <t>There can be multiple comments per property.</t>
-  </si>
-  <si>
-    <t>Comment ID</t>
-  </si>
-  <si>
-    <t>Property ID, Comment ID -&gt; Comment</t>
+    <t>Property No</t>
+  </si>
+  <si>
+    <t>MLS #</t>
+  </si>
+  <si>
+    <t>I invented the Property Number to avoid having to type the full property type, style, address, town, bedrooms, baths, sq. ft.</t>
+  </si>
+  <si>
+    <t>Schdule No</t>
+  </si>
+  <si>
+    <t>{ Property No } -&gt; { Property Type, Property Style,  Town, Address, Bedrooms, Baths, Sq. Ft }</t>
+  </si>
+  <si>
+    <t>{ Schdule No } -&gt; { Realtor Guide, Date }</t>
+  </si>
+  <si>
+    <t>Multiple Realtors could be selling the same property.</t>
+  </si>
+  <si>
+    <t>Different Realtors could be selling the same property at different prices.</t>
+  </si>
+  <si>
+    <t>A property can have multiple comments on it.</t>
+  </si>
+  <si>
+    <t>Comment No</t>
+  </si>
+  <si>
+    <t>Schedules</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t>Foreign Keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visits { Property No } -&gt; Properties { Property No } </t>
+  </si>
+  <si>
+    <t>Visits { Schedule No } -&gt; Schedules { Schedule No }</t>
+  </si>
+  <si>
+    <t>Comments { Property No } -&gt; Properties { Property No }</t>
+  </si>
+  <si>
+    <t>Schedule No</t>
+  </si>
+  <si>
+    <t>I invented the Comment Number to avoid having to type the full comment.</t>
+  </si>
+  <si>
+    <t>The combination of Property No and Comment No uniquely identifies each comment for a property.</t>
+  </si>
+  <si>
+    <t>{ Property No, Comment No } -&gt; { Comment }</t>
+  </si>
+  <si>
+    <t>The combination of Property No, Schdule No, and Comment No uniquely identifies each row.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,21 +208,56 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF76933C"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF76933C"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
-      <color theme="6" tint="-0.249977111117893"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="6" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -207,43 +272,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEBF1DE"/>
-        <bgColor rgb="FFEBF1DE"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9BBB59"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9BBB59"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9BBB59"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -261,13 +306,88 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
       <bottom style="thin">
         <color theme="6"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="213">
+  <cellStyleXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -481,40 +601,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="42" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="213" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="213">
+  <cellStyles count="226">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -621,6 +766,13 @@
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 2" xfId="213" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -727,9 +879,99 @@
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="30">
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -742,11 +984,92 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -760,50 +1083,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -817,7 +1100,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -835,10 +1118,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -848,9 +1132,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -860,9 +1146,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -872,9 +1160,29 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -884,6 +1192,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -896,6 +1205,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -908,6 +1218,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -920,6 +1231,46 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -930,23 +1281,69 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L4" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:L5" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="12">
+    <tableColumn id="1" name="Property Type" dataDxfId="27"/>
+    <tableColumn id="2" name="Bedrooms" dataDxfId="26"/>
+    <tableColumn id="3" name="Town" dataDxfId="25"/>
+    <tableColumn id="4" name="Realtor Guide" dataDxfId="24"/>
+    <tableColumn id="5" name="Date" dataDxfId="23"/>
+    <tableColumn id="6" name="ILS #" dataDxfId="22"/>
+    <tableColumn id="7" name="Baths" dataDxfId="21"/>
+    <tableColumn id="8" name="Sq. Ft" dataDxfId="20"/>
+    <tableColumn id="9" name="Address" dataDxfId="19"/>
+    <tableColumn id="12" name="Property Style" dataDxfId="18"/>
+    <tableColumn id="10" name="Price" dataDxfId="17"/>
+    <tableColumn id="11" name="Comments" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A2:O5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <tableColumns count="15">
+    <tableColumn id="13" name="Property No" dataDxfId="13"/>
+    <tableColumn id="14" name="Schdule No"/>
+    <tableColumn id="2" name="Comment No"/>
+    <tableColumn id="18" name="Realtor Guide"/>
+    <tableColumn id="17" name="Date"/>
+    <tableColumn id="16" name="MLS #"/>
+    <tableColumn id="22" name="Price" dataDxfId="12"/>
     <tableColumn id="1" name="Property Type" dataDxfId="11"/>
-    <tableColumn id="2" name="Bedrooms" dataDxfId="10"/>
-    <tableColumn id="3" name="Town" dataDxfId="9"/>
-    <tableColumn id="4" name="Realtor Guide" dataDxfId="8"/>
-    <tableColumn id="5" name="Date" dataDxfId="7"/>
-    <tableColumn id="6" name="ILS #" dataDxfId="5"/>
-    <tableColumn id="7" name="Baths" dataDxfId="4"/>
-    <tableColumn id="8" name="Sq. Ft" dataDxfId="3"/>
-    <tableColumn id="9" name="Address" dataDxfId="2"/>
-    <tableColumn id="12" name="Property Style" dataDxfId="1"/>
-    <tableColumn id="10" name="Price" dataDxfId="0"/>
-    <tableColumn id="11" name="Comments" dataDxfId="6"/>
+    <tableColumn id="15" name="Property Style"/>
+    <tableColumn id="3" name="Town" dataDxfId="10"/>
+    <tableColumn id="9" name="Address" dataDxfId="9"/>
+    <tableColumn id="21" name="Bedrooms"/>
+    <tableColumn id="20" name="Baths"/>
+    <tableColumn id="19" name="Sq. Ft"/>
+    <tableColumn id="11" name="Comments" dataDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table134" displayName="Table134" ref="A2:D6" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <tableColumns count="4">
+    <tableColumn id="13" name="Property No" dataDxfId="5"/>
+    <tableColumn id="14" name="Schdule No"/>
+    <tableColumn id="16" name="MLS #"/>
+    <tableColumn id="22" name="Price" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table1345" displayName="Table1345" ref="A2:D6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <tableColumns count="4">
+    <tableColumn id="13" name="Property No" dataDxfId="1"/>
+    <tableColumn id="14" name="Schedule No"/>
+    <tableColumn id="16" name="MLS #"/>
+    <tableColumn id="22" name="Price" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1272,178 +1669,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
-    <col min="11" max="11" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="134.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="17" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" thickTop="1">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="K2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E3" s="9">
         <v>41158</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F3" s="10">
         <v>4003199</v>
       </c>
-      <c r="G2" s="21">
-        <v>2</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10">
         <v>1120</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K3" s="10">
         <v>84999</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5">
+        <v>4010462</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1323</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5">
+        <v>130000</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
+        <v>4010089</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1780</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="10">
+        <v>124900</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O20"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="17" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="16" thickTop="1">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="9">
+        <v>41158</v>
+      </c>
+      <c r="F3" s="10">
+        <v>4003199</v>
+      </c>
+      <c r="G3" s="16">
+        <v>84999</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="K3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2</v>
+      </c>
+      <c r="M3" s="10">
+        <v>2</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1120</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>7</v>
+      </c>
+      <c r="C4" s="12">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E4" s="14">
         <v>41158</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F4" s="5">
         <v>4010462</v>
       </c>
-      <c r="G3" s="21">
-        <v>2</v>
-      </c>
-      <c r="H3" s="21">
+      <c r="G4" s="17">
+        <v>130000</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="12">
+        <v>2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>2</v>
+      </c>
+      <c r="N4" s="5">
         <v>1323</v>
       </c>
-      <c r="I3" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="21">
-        <v>130000</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:15">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9">
+        <v>41158</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4010089</v>
+      </c>
+      <c r="G5" s="16">
+        <v>124900</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="I5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>41158</v>
-      </c>
-      <c r="F4" s="21">
-        <v>4010089</v>
-      </c>
-      <c r="G4" s="21">
+      <c r="K5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2</v>
+      </c>
+      <c r="M5" s="10">
         <v>3</v>
       </c>
-      <c r="H4" s="21">
+      <c r="N5" s="10">
         <v>1780</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="21">
-        <v>124900</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="O5" s="11" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1460,512 +2138,278 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickTop="1">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4003199</v>
+      </c>
+      <c r="D3" s="16">
+        <v>84999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4010462</v>
+      </c>
+      <c r="D4" s="17">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4010089</v>
+      </c>
+      <c r="D5" s="16">
+        <v>124900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickTop="1">
+      <c r="A7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="G7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="H7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" s="9" t="s">
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20">
+        <v>1</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29">
+        <v>3</v>
+      </c>
+      <c r="H10" s="29">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1">
+      <c r="A11" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickTop="1">
+      <c r="A12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="32">
+        <v>41158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1">
+      <c r="A14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
+    </row>
+    <row r="15" spans="1:8" ht="16" thickTop="1">
+      <c r="A15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
-        <v>7</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="10">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7">
-        <v>2</v>
-      </c>
-      <c r="I3" s="22">
-        <v>1120</v>
-      </c>
-      <c r="J3" s="22">
-        <v>8</v>
-      </c>
-      <c r="K3" s="12" t="s">
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="13">
-        <v>41158</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="22">
-        <v>4003199</v>
-      </c>
-      <c r="O3" s="22">
-        <v>84999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="15">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="8">
-        <v>2</v>
-      </c>
-      <c r="I4" s="23">
-        <v>1323</v>
-      </c>
-      <c r="J4" s="23">
-        <v>9</v>
-      </c>
-      <c r="K4" s="15" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26">
+        <v>2</v>
+      </c>
+      <c r="C17" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="16">
-        <v>41158</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="23">
-        <v>4010462</v>
-      </c>
-      <c r="O4" s="23">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="B5" s="19">
-        <v>7</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="17">
-        <v>2</v>
-      </c>
-      <c r="H5" s="25">
+      <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="I5" s="24">
-        <v>1780</v>
-      </c>
-      <c r="J5" s="24">
-        <v>10</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="C18" s="36" t="s">
         <v>24</v>
-      </c>
-      <c r="L5" s="20">
-        <v>41158</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N5" s="24">
-        <v>4010089</v>
-      </c>
-      <c r="O5" s="24">
-        <v>124900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="10">
-        <v>2</v>
-      </c>
-      <c r="G2" s="7">
-        <v>2</v>
-      </c>
-      <c r="H2" s="22">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>2</v>
-      </c>
-      <c r="H3" s="23">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2</v>
-      </c>
-      <c r="G4" s="25">
-        <v>3</v>
-      </c>
-      <c r="H4" s="24">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="12">
-        <v>7</v>
-      </c>
-      <c r="B7" s="13">
-        <v>41158</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="15">
-        <v>8</v>
-      </c>
-      <c r="B8" s="16">
-        <v>41158</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="19">
-        <v>9</v>
-      </c>
-      <c r="B9" s="20">
-        <v>41158</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12">
-        <v>7</v>
-      </c>
-      <c r="C12" s="22">
-        <v>4003199</v>
-      </c>
-      <c r="D12" s="22">
-        <v>84999</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" s="15">
-        <v>7</v>
-      </c>
-      <c r="C13" s="23">
-        <v>4010462</v>
-      </c>
-      <c r="D13" s="23">
-        <v>130000</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="19">
-        <v>7</v>
-      </c>
-      <c r="C14" s="24">
-        <v>4010089</v>
-      </c>
-      <c r="D14" s="24">
-        <v>124900</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1976,280 +2420,295 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
+      <c r="A1" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" thickTop="1">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>7</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4003199</v>
+      </c>
+      <c r="D3" s="16">
+        <v>84999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5">
+        <v>4010462</v>
+      </c>
+      <c r="D4" s="17">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B5" s="7">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4010089</v>
+      </c>
+      <c r="D5" s="16">
+        <v>124900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1">
+      <c r="A6" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickTop="1">
+      <c r="A7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="F7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="8" spans="1:8">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+      <c r="G8" s="25">
+        <v>2</v>
+      </c>
+      <c r="H8" s="25">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="21">
+        <v>2</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="10">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="22">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E9" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22">
+        <v>3</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8">
-        <v>2</v>
-      </c>
-      <c r="H4" s="23">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="E10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="28">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="17">
-        <v>2</v>
-      </c>
-      <c r="G5" s="25">
+      <c r="H10" s="29">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1">
+      <c r="A11" s="41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16" thickTop="1">
+      <c r="A12" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="32">
+        <v>41158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1">
+      <c r="A14" s="41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" thickTop="1">
+      <c r="A15" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20">
+        <v>1</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="21">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26">
+        <v>2</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="22">
         <v>3</v>
       </c>
-      <c r="H5" s="24">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" s="13">
-        <v>41158</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="B18" s="28">
         <v>3</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C18" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="B16" s="26"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="12">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="22">
-        <v>4003199</v>
-      </c>
-      <c r="E19" s="22">
-        <v>84999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="15">
-        <v>7</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="23">
-        <v>4010462</v>
-      </c>
-      <c r="E20" s="23">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" s="19">
-        <v>7</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="24">
-        <v>4010089</v>
-      </c>
-      <c r="E21" s="24">
-        <v>124900</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
